--- a/ExtraThingi10K.xlsx
+++ b/ExtraThingi10K.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E089A0-1D32-4257-9EE1-D6EE1D9BB5BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BCC17B-66CF-40BC-844A-F3DE7F3668F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,6 +415,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -467,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -476,6 +481,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -760,8 +774,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DB403"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AR405" sqref="AR405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -83742,39 +83757,39 @@
         <f t="shared" si="0"/>
         <v>61.659846547314579</v>
       </c>
-      <c r="AP403" s="3">
+      <c r="AP403" s="5">
         <f t="shared" si="0"/>
         <v>5.6608794649438002E-3</v>
       </c>
-      <c r="AQ403" s="3">
+      <c r="AQ403" s="5">
         <f t="shared" si="0"/>
         <v>5.4453126713155239E-3</v>
       </c>
-      <c r="AR403" s="3">
+      <c r="AR403" s="5">
         <f t="shared" si="0"/>
         <v>1.3712260856671215E-2</v>
       </c>
-      <c r="AS403" s="3">
+      <c r="AS403" s="4">
         <f t="shared" si="0"/>
         <v>1.0696096831350348E-4</v>
       </c>
-      <c r="AT403" s="3">
+      <c r="AT403" s="5">
         <f t="shared" si="0"/>
         <v>5.822745697927941E-3</v>
       </c>
-      <c r="AU403" s="3">
+      <c r="AU403" s="5">
         <f t="shared" si="0"/>
         <v>2.8107977385342501E-3</v>
       </c>
-      <c r="AV403" s="3">
+      <c r="AV403" s="5">
         <f t="shared" si="0"/>
         <v>1.4217099210164714E-3</v>
       </c>
-      <c r="AW403" s="3">
+      <c r="AW403" s="5">
         <f t="shared" si="0"/>
         <v>5.9607474302343878E-3</v>
       </c>
-      <c r="AX403" s="3">
+      <c r="AX403" s="5">
         <f t="shared" si="0"/>
         <v>4.3091452795778534E-3</v>
       </c>
@@ -83818,36 +83833,36 @@
         <f t="shared" si="0"/>
         <v>47.947210025787342</v>
       </c>
-      <c r="BI403" s="3">
+      <c r="BI403" s="6">
         <f t="shared" si="0"/>
         <v>46.325691790580748</v>
       </c>
-      <c r="BJ403" s="3">
+      <c r="BJ403" s="6">
         <f t="shared" si="0"/>
         <v>37.176565389633176</v>
       </c>
-      <c r="BK403" s="3">
+      <c r="BK403" s="6">
         <f t="shared" si="0"/>
         <v>67.848381898138243</v>
       </c>
-      <c r="BL403" s="3">
+      <c r="BL403" s="6">
         <f t="shared" si="0"/>
         <v>64.118297375626298</v>
       </c>
-      <c r="BM403" s="3">
+      <c r="BM403" s="6">
         <f t="shared" si="0"/>
         <v>65.196199427799684</v>
       </c>
-      <c r="BN403" s="3">
+      <c r="BN403" s="6">
         <f t="shared" si="0"/>
         <v>66.679419894218441</v>
       </c>
-      <c r="BO403" s="3">
-        <f t="shared" ref="BO403:BP403" si="1">AVERAGEIF(BO3:BO402,"&gt;=0")</f>
+      <c r="BO403" s="6">
+        <f t="shared" ref="BO403" si="1">AVERAGEIF(BO3:BO402,"&gt;=0")</f>
         <v>50.777842326164233</v>
       </c>
-      <c r="BP403" s="3">
-        <f t="shared" si="1"/>
+      <c r="BP403" s="6">
+        <f t="shared" ref="BO403:BP403" si="2">AVERAGEIF(BP3:BP402,"&gt;=0")</f>
         <v>64.059510067600712</v>
       </c>
       <c r="BQ403" s="3"/>
